--- a/biology/Botanique/Asteropeiaceae/Asteropeiaceae.xlsx
+++ b/biology/Botanique/Asteropeiaceae/Asteropeiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Asteropeiaceae regroupe des plantes dicotylédones ; elle comprend 7 espèces du genre Asteropeia (en).
 Ce sont des petits arbres ou des arbustes à feuilles persistantes, endémiques de Madagascar.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Asteropeia dérivé du grec αστραπή / astrapi, foudre, éclair. Une autre source fait appel à la racine grecque αστέρ / astèr, étoile, en référence au calice divisé en étoile de cette plante[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Asteropeia dérivé du grec αστραπή / astrapi, foudre, éclair. Une autre source fait appel à la racine grecque αστέρ / astèr, étoile, en référence au calice divisé en étoile de cette plante.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres de la famille ont été séparés des Theaceae sur la base de l'anatomie du bois par le système classification phylogénétique APG (1998)[2], et assignés à l'ordre des Caryophyllales dans le clade des dicotylédones vraies. La famille se compose du seul genre, Asteropeia, originaire de Madagascar.
-Selon l’Angiosperm Phylogeny Website, le genre forme un clade avec la famille des Physenaceae[3], famille également originaire de Madagascar.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres de la famille ont été séparés des Theaceae sur la base de l'anatomie du bois par le système classification phylogénétique APG (1998), et assignés à l'ordre des Caryophyllales dans le clade des dicotylédones vraies. La famille se compose du seul genre, Asteropeia, originaire de Madagascar.
+Selon l’Angiosperm Phylogeny Website, le genre forme un clade avec la famille des Physenaceae, famille également originaire de Madagascar.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avr. 2010)[4], Angiosperm Phylogeny Website                        (21 mai 2010)[5], NCBI  (30 avr. 2010)[6] et DELTA Angio           (30 avr. 2010)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avr. 2010), Angiosperm Phylogeny Website                        (21 mai 2010), NCBI  (30 avr. 2010) et DELTA Angio           (30 avr. 2010) :
 genre Asteropeia (en)  Thouars (1807)</t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avr. 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avr. 2010) :
 genre Asteropeia (en)  Thouars (1807)
 Asteropeia amblyocarpa  Tul., Ann. Sci. Nat. (1857)
 Asteropeia densiflora  Baker (1882)
@@ -618,7 +638,7 @@
 Asteropeia micraster  Hallier f. (1921)
 Asteropeia multiflora  Thouars (1807)
 Asteropeia rhopaloides  (Baker) Baill. (1886)
-Selon NCBI  (30 avr. 2010)[6] :
+Selon NCBI  (30 avr. 2010) :
 genre Asteropeia (en)
 Asteropeia micraster</t>
         </is>
